--- a/ESERCIZIO 2.xlsx
+++ b/ESERCIZIO 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielamuto/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielamuto/Documents/EXCEL EPICODE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFC8AAA4-DBFF-294F-B3A4-DC19C62EF2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E91D6CC-79E2-CB4C-AA95-76F015BCE5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3440" yWindow="740" windowWidth="25960" windowHeight="18380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assoluti_Iva" sheetId="15" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="CONTA" sheetId="32" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Assoluti_Iva!$A$4:$H$340</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Assoluti_Iva!$A$4:$C$340</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LOGICA!$A$1:$D$80</definedName>
     <definedName name="abitanti">CONTA!$B$2:$B$110</definedName>
     <definedName name="ACCES">Assoluti_Iva!$A$196:$C$230</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="207">
   <si>
     <t>Data</t>
   </si>
@@ -692,12 +692,21 @@
   <si>
     <t>MEDIA IMPONIBILE</t>
   </si>
+  <si>
+    <t>ABBIGLIAMENTO &gt; 300.000</t>
+  </si>
+  <si>
+    <t>IVA HHB</t>
+  </si>
+  <si>
+    <t>MANUALI &lt; 1.000.000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
@@ -705,8 +714,7 @@
     <numFmt numFmtId="168" formatCode="&quot;€&quot;\ #,##0.00"/>
     <numFmt numFmtId="169" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="170" formatCode="_-[$€]\ * #,##0.00_-;\-[$€]\ * #,##0.00_-;_-[$€]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
-    <numFmt numFmtId="173" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -932,18 +940,18 @@
     <xf numFmtId="168" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="6" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma [0]" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -958,37 +966,7 @@
     <cellStyle name="Valuta 2" xfId="7" xr:uid="{207091F5-721C-455F-B370-D6B4AD03B231}"/>
     <cellStyle name="Valuta_gestione clienti(out)-1" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1006,76 +984,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1421,9 +1329,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64CFBE5-9F9D-4F9A-8F99-5524B5637A72}">
   <dimension ref="A1:H340"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1431,27 +1339,26 @@
     <col min="1" max="1" width="41.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.5" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" style="9" customWidth="1"/>
-    <col min="4" max="4" width="19" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="102.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
@@ -1464,14 +1371,20 @@
         <v>187</v>
       </c>
       <c r="D4" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="H4" s="14" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
@@ -1483,16 +1396,26 @@
       <c r="C5" s="9">
         <v>281000</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="26" t="str">
+        <f>IF(AND(B5="Abbigliamento",C5&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E5" s="26" t="str">
+        <f>IF(A5="HHB",C5*0.22,"")</f>
+        <v/>
+      </c>
+      <c r="F5" s="26">
+        <f>AVERAGE(imponibile)</f>
+        <v>519442.42424242425</v>
+      </c>
+      <c r="G5" s="26">
         <f>SUM(imponibile)</f>
         <v>171416000</v>
       </c>
-      <c r="E5" s="30">
-        <f>AVERAGE(imponibile)</f>
-        <v>519442.42424242425</v>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="H5" s="26" t="str">
+        <f>IF(AND(B5="Manuali",C5&lt;1000000),"VERO","")</f>
+        <v/>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
@@ -1504,6 +1427,18 @@
       <c r="C6" s="9">
         <v>323000</v>
       </c>
+      <c r="D6" s="26" t="str">
+        <f t="shared" ref="D6:D69" si="0">IF(AND(B6="Abbigliamento",C6&gt;300000),"TROVATO","")</f>
+        <v>TROVATO</v>
+      </c>
+      <c r="E6" s="26" t="str">
+        <f t="shared" ref="E6:E69" si="1">IF(A6="HHB",C6*0.22,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="26" t="str">
+        <f t="shared" ref="H6:H69" si="2">IF(AND(B6="Manuali",C6&lt;1000000),"VERO","")</f>
+        <v/>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
@@ -1515,6 +1450,18 @@
       <c r="C7" s="9">
         <v>344000</v>
       </c>
+      <c r="D7" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E7" s="26">
+        <f t="shared" si="1"/>
+        <v>75680</v>
+      </c>
+      <c r="H7" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
@@ -1526,6 +1473,18 @@
       <c r="C8" s="9">
         <v>361000</v>
       </c>
+      <c r="D8" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E8" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H8" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
@@ -1537,6 +1496,18 @@
       <c r="C9" s="9">
         <v>521000</v>
       </c>
+      <c r="D9" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E9" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H9" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
@@ -1548,6 +1519,18 @@
       <c r="C10" s="9">
         <v>527000</v>
       </c>
+      <c r="D10" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E10" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H10" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
@@ -1559,6 +1542,18 @@
       <c r="C11" s="9">
         <v>626000</v>
       </c>
+      <c r="D11" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E11" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
@@ -1570,6 +1565,18 @@
       <c r="C12" s="9">
         <v>656000</v>
       </c>
+      <c r="D12" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E12" s="26">
+        <f t="shared" si="1"/>
+        <v>144320</v>
+      </c>
+      <c r="H12" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
@@ -1581,6 +1588,18 @@
       <c r="C13" s="9">
         <v>666000</v>
       </c>
+      <c r="D13" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E13" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H13" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
@@ -1592,6 +1611,18 @@
       <c r="C14" s="9">
         <v>882000</v>
       </c>
+      <c r="D14" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E14" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H14" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
@@ -1603,6 +1634,18 @@
       <c r="C15" s="9">
         <v>1108000</v>
       </c>
+      <c r="D15" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E15" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H15" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
@@ -1614,8 +1657,20 @@
       <c r="C16" s="9">
         <v>1316000</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D16" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E16" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H16" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>67</v>
       </c>
@@ -1625,8 +1680,20 @@
       <c r="C17" s="9">
         <v>1594000</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D17" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E17" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H17" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>44</v>
       </c>
@@ -1636,8 +1703,20 @@
       <c r="C18" s="9">
         <v>2719000</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D18" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E18" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H18" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>11</v>
       </c>
@@ -1647,8 +1726,20 @@
       <c r="C19" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D19" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E19" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H19" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>17</v>
       </c>
@@ -1658,8 +1749,20 @@
       <c r="C20" s="9">
         <v>4092000</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D20" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E20" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H20" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>52</v>
       </c>
@@ -1669,8 +1772,20 @@
       <c r="C21" s="9">
         <v>13859000</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D21" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E21" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H21" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>31</v>
       </c>
@@ -1680,8 +1795,20 @@
       <c r="C22" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D22" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E22" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H22" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
         <v>25</v>
       </c>
@@ -1691,8 +1818,20 @@
       <c r="C23" s="9">
         <v>167000</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D23" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E23" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H23" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>9</v>
       </c>
@@ -1702,8 +1841,20 @@
       <c r="C24" s="9">
         <v>202000</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D24" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E24" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H24" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>59</v>
       </c>
@@ -1713,8 +1864,20 @@
       <c r="C25" s="9">
         <v>203000</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D25" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E25" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H25" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>29</v>
       </c>
@@ -1724,8 +1887,20 @@
       <c r="C26" s="9">
         <v>234000</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D26" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E26" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H26" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>56</v>
       </c>
@@ -1735,8 +1910,20 @@
       <c r="C27" s="9">
         <v>252000</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D27" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E27" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H27" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>31</v>
       </c>
@@ -1746,8 +1933,20 @@
       <c r="C28" s="9">
         <v>259000</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D28" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E28" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H28" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>59</v>
       </c>
@@ -1757,8 +1956,20 @@
       <c r="C29" s="9">
         <v>269000</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D29" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E29" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H29" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>56</v>
       </c>
@@ -1768,8 +1979,20 @@
       <c r="C30" s="9">
         <v>271000</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D30" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E30" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H30" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>56</v>
       </c>
@@ -1779,8 +2002,20 @@
       <c r="C31" s="9">
         <v>292000</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D31" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E31" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H31" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
         <v>5</v>
       </c>
@@ -1790,8 +2025,20 @@
       <c r="C32" s="9">
         <v>293000</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D32" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E32" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H32" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
         <v>47</v>
       </c>
@@ -1801,8 +2048,20 @@
       <c r="C33" s="9">
         <v>307000</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D33" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E33" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H33" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>39</v>
       </c>
@@ -1812,8 +2071,20 @@
       <c r="C34" s="9">
         <v>440000</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D34" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E34" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H34" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>36</v>
       </c>
@@ -1823,8 +2094,20 @@
       <c r="C35" s="9">
         <v>487000</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D35" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E35" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H35" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
         <v>49</v>
       </c>
@@ -1834,8 +2117,20 @@
       <c r="C36" s="9">
         <v>566000</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D36" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E36" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H36" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
         <v>20</v>
       </c>
@@ -1845,8 +2140,20 @@
       <c r="C37" s="9">
         <v>802000</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D37" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E37" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H37" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
         <v>18</v>
       </c>
@@ -1856,8 +2163,20 @@
       <c r="C38" s="9">
         <v>1579000</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D38" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E38" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H38" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
         <v>46</v>
       </c>
@@ -1867,8 +2186,20 @@
       <c r="C39" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D39" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E39" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H39" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
         <v>67</v>
       </c>
@@ -1878,8 +2209,20 @@
       <c r="C40" s="9">
         <v>70000</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D40" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E40" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H40" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
         <v>21</v>
       </c>
@@ -1889,8 +2232,20 @@
       <c r="C41" s="9">
         <v>104000</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D41" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E41" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H41" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
         <v>61</v>
       </c>
@@ -1900,8 +2255,20 @@
       <c r="C42" s="9">
         <v>127000</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D42" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E42" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H42" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
         <v>42</v>
       </c>
@@ -1911,8 +2278,20 @@
       <c r="C43" s="9">
         <v>162000</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D43" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E43" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H43" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="7" t="s">
         <v>44</v>
       </c>
@@ -1922,8 +2301,20 @@
       <c r="C44" s="9">
         <v>179000</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D44" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E44" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H44" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
         <v>70</v>
       </c>
@@ -1933,8 +2324,20 @@
       <c r="C45" s="9">
         <v>186000</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D45" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E45" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H45" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
         <v>33</v>
       </c>
@@ -1944,8 +2347,20 @@
       <c r="C46" s="9">
         <v>186000</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D46" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E46" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H46" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
         <v>20</v>
       </c>
@@ -1955,8 +2370,20 @@
       <c r="C47" s="9">
         <v>203000</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D47" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E47" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H47" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
         <v>45</v>
       </c>
@@ -1966,8 +2393,20 @@
       <c r="C48" s="9">
         <v>212000</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D48" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E48" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H48" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="7" t="s">
         <v>50</v>
       </c>
@@ -1977,8 +2416,20 @@
       <c r="C49" s="9">
         <v>222000</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D49" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E49" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H49" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="7" t="s">
         <v>21</v>
       </c>
@@ -1988,8 +2439,20 @@
       <c r="C50" s="9">
         <v>245000</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D50" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E50" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H50" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
         <v>60</v>
       </c>
@@ -1999,8 +2462,20 @@
       <c r="C51" s="9">
         <v>251000</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D51" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E51" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H51" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
         <v>69</v>
       </c>
@@ -2010,8 +2485,20 @@
       <c r="C52" s="9">
         <v>257000</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D52" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E52" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H52" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="7" t="s">
         <v>69</v>
       </c>
@@ -2021,8 +2508,20 @@
       <c r="C53" s="9">
         <v>269000</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D53" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E53" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H53" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="7" t="s">
         <v>57</v>
       </c>
@@ -2032,8 +2531,20 @@
       <c r="C54" s="9">
         <v>314000</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D54" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E54" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H54" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="7" t="s">
         <v>53</v>
       </c>
@@ -2043,8 +2554,20 @@
       <c r="C55" s="9">
         <v>325000</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D55" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E55" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H55" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
         <v>5</v>
       </c>
@@ -2054,8 +2577,20 @@
       <c r="C56" s="9">
         <v>347000</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D56" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>TROVATO</v>
+      </c>
+      <c r="E56" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H56" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="7" t="s">
         <v>31</v>
       </c>
@@ -2065,8 +2600,20 @@
       <c r="C57" s="9">
         <v>369000</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D57" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>TROVATO</v>
+      </c>
+      <c r="E57" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H57" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
         <v>31</v>
       </c>
@@ -2076,8 +2623,20 @@
       <c r="C58" s="9">
         <v>402000</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D58" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>TROVATO</v>
+      </c>
+      <c r="E58" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H58" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="7" t="s">
         <v>47</v>
       </c>
@@ -2087,8 +2646,20 @@
       <c r="C59" s="9">
         <v>471000</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D59" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E59" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H59" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="7" t="s">
         <v>25</v>
       </c>
@@ -2098,8 +2669,20 @@
       <c r="C60" s="9">
         <v>476000</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D60" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E60" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H60" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="7" t="s">
         <v>65</v>
       </c>
@@ -2109,8 +2692,20 @@
       <c r="C61" s="9">
         <v>492000</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D61" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E61" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H61" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="7" t="s">
         <v>66</v>
       </c>
@@ -2120,8 +2715,20 @@
       <c r="C62" s="9">
         <v>531000</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D62" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E62" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H62" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="7" t="s">
         <v>33</v>
       </c>
@@ -2131,8 +2738,20 @@
       <c r="C63" s="9">
         <v>552000</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D63" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>TROVATO</v>
+      </c>
+      <c r="E63" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H63" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="7" t="s">
         <v>9</v>
       </c>
@@ -2142,8 +2761,20 @@
       <c r="C64" s="9">
         <v>1487000</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D64" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E64" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H64" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
         <v>65</v>
       </c>
@@ -2153,8 +2784,20 @@
       <c r="C65" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D65" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E65" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H65" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="7" t="s">
         <v>9</v>
       </c>
@@ -2164,8 +2807,20 @@
       <c r="C66" s="9">
         <v>101000</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D66" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E66" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H66" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="7" t="s">
         <v>70</v>
       </c>
@@ -2175,8 +2830,20 @@
       <c r="C67" s="9">
         <v>38000</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D67" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E67" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H67" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="7" t="s">
         <v>70</v>
       </c>
@@ -2186,8 +2853,20 @@
       <c r="C68" s="9">
         <v>137000</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D68" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E68" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H68" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="7" t="s">
         <v>73</v>
       </c>
@@ -2197,8 +2876,20 @@
       <c r="C69" s="9">
         <v>222000</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D69" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E69" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H69" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" s="7" t="s">
         <v>71</v>
       </c>
@@ -2208,8 +2899,20 @@
       <c r="C70" s="9">
         <v>501000</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D70" s="26" t="str">
+        <f t="shared" ref="D70:D133" si="3">IF(AND(B70="Abbigliamento",C70&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E70" s="26" t="str">
+        <f t="shared" ref="E70:E133" si="4">IF(A70="HHB",C70*0.22,"")</f>
+        <v/>
+      </c>
+      <c r="H70" s="26" t="str">
+        <f t="shared" ref="H70:H133" si="5">IF(AND(B70="Manuali",C70&lt;1000000),"VERO","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="7" t="s">
         <v>27</v>
       </c>
@@ -2219,8 +2922,20 @@
       <c r="C71" s="9">
         <v>428000</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D71" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E71" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H71" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" s="7" t="s">
         <v>37</v>
       </c>
@@ -2230,8 +2945,20 @@
       <c r="C72" s="9">
         <v>561000</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D72" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E72" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H72" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" s="7" t="s">
         <v>60</v>
       </c>
@@ -2241,8 +2968,20 @@
       <c r="C73" s="9">
         <v>1578000</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D73" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E73" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H73" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="7" t="s">
         <v>23</v>
       </c>
@@ -2252,8 +2991,20 @@
       <c r="C74" s="9">
         <v>34000</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D74" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E74" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H74" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" s="7" t="s">
         <v>71</v>
       </c>
@@ -2263,8 +3014,20 @@
       <c r="C75" s="9">
         <v>20000</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D75" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E75" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H75" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" s="7" t="s">
         <v>25</v>
       </c>
@@ -2274,8 +3037,20 @@
       <c r="C76" s="9">
         <v>23000</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D76" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E76" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H76" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" s="7" t="s">
         <v>73</v>
       </c>
@@ -2285,8 +3060,20 @@
       <c r="C77" s="9">
         <v>98000</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D77" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E77" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H77" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" s="7" t="s">
         <v>62</v>
       </c>
@@ -2296,8 +3083,20 @@
       <c r="C78" s="9">
         <v>251000</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D78" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E78" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H78" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" s="7" t="s">
         <v>33</v>
       </c>
@@ -2307,8 +3106,20 @@
       <c r="C79" s="9">
         <v>15000</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D79" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E79" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H79" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80" s="7" t="s">
         <v>32</v>
       </c>
@@ -2318,8 +3129,20 @@
       <c r="C80" s="9">
         <v>14000</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D80" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E80" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H80" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81" s="7" t="s">
         <v>74</v>
       </c>
@@ -2329,8 +3152,20 @@
       <c r="C81" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D81" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E81" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H81" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A82" s="7" t="s">
         <v>74</v>
       </c>
@@ -2340,8 +3175,20 @@
       <c r="C82" s="9">
         <v>399000</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D82" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E82" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H82" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
         <v>63</v>
       </c>
@@ -2351,8 +3198,20 @@
       <c r="C83" s="9">
         <v>259000</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D83" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E83" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H83" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A84" s="7" t="s">
         <v>61</v>
       </c>
@@ -2362,8 +3221,20 @@
       <c r="C84" s="9">
         <v>324000</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D84" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>TROVATO</v>
+      </c>
+      <c r="E84" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H84" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A85" s="7" t="s">
         <v>41</v>
       </c>
@@ -2373,8 +3244,20 @@
       <c r="C85" s="9">
         <v>378000</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D85" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>TROVATO</v>
+      </c>
+      <c r="E85" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H85" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A86" s="7" t="s">
         <v>193</v>
       </c>
@@ -2384,8 +3267,20 @@
       <c r="C86" s="9">
         <v>469000</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D86" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E86" s="26">
+        <f t="shared" si="4"/>
+        <v>103180</v>
+      </c>
+      <c r="H86" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87" s="7" t="s">
         <v>62</v>
       </c>
@@ -2395,8 +3290,20 @@
       <c r="C87" s="9">
         <v>556000</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D87" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E87" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H87" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A88" s="7" t="s">
         <v>25</v>
       </c>
@@ -2406,8 +3313,20 @@
       <c r="C88" s="9">
         <v>476000</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D88" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E88" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H88" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A89" s="7" t="s">
         <v>13</v>
       </c>
@@ -2417,8 +3336,20 @@
       <c r="C89" s="9">
         <v>477000</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D89" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E89" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H89" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A90" s="7" t="s">
         <v>34</v>
       </c>
@@ -2428,8 +3359,20 @@
       <c r="C90" s="9">
         <v>556000</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D90" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E90" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H90" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A91" s="7" t="s">
         <v>193</v>
       </c>
@@ -2439,8 +3382,20 @@
       <c r="C91" s="9">
         <v>695000</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D91" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E91" s="26">
+        <f t="shared" si="4"/>
+        <v>152900</v>
+      </c>
+      <c r="H91" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A92" s="7" t="s">
         <v>15</v>
       </c>
@@ -2450,8 +3405,20 @@
       <c r="C92" s="9">
         <v>1279000</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D92" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E92" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H92" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A93" s="7" t="s">
         <v>55</v>
       </c>
@@ -2461,8 +3428,20 @@
       <c r="C93" s="9">
         <v>35000</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D93" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E93" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H93" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A94" s="7" t="s">
         <v>7</v>
       </c>
@@ -2472,8 +3451,20 @@
       <c r="C94" s="9">
         <v>175000</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D94" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E94" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H94" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v>VERO</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A95" s="7" t="s">
         <v>62</v>
       </c>
@@ -2483,8 +3474,20 @@
       <c r="C95" s="9">
         <v>272000</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D95" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E95" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H95" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A96" s="7" t="s">
         <v>67</v>
       </c>
@@ -2494,8 +3497,20 @@
       <c r="C96" s="9">
         <v>198000</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D96" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E96" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H96" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A97" s="7" t="s">
         <v>44</v>
       </c>
@@ -2505,8 +3520,20 @@
       <c r="C97" s="9">
         <v>290000</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D97" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E97" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H97" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A98" s="7" t="s">
         <v>11</v>
       </c>
@@ -2516,8 +3543,20 @@
       <c r="C98" s="9">
         <v>589000</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D98" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E98" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H98" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A99" s="7" t="s">
         <v>17</v>
       </c>
@@ -2527,8 +3566,20 @@
       <c r="C99" s="9">
         <v>743000</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D99" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E99" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H99" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A100" s="7" t="s">
         <v>52</v>
       </c>
@@ -2538,8 +3589,20 @@
       <c r="C100" s="9">
         <v>271000</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D100" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E100" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H100" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A101" s="7" t="s">
         <v>31</v>
       </c>
@@ -2549,8 +3612,20 @@
       <c r="C101" s="9">
         <v>632000</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D101" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>TROVATO</v>
+      </c>
+      <c r="E101" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H101" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A102" s="7" t="s">
         <v>25</v>
       </c>
@@ -2560,8 +3635,20 @@
       <c r="C102" s="9">
         <v>90000</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D102" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E102" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H102" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A103" s="7" t="s">
         <v>9</v>
       </c>
@@ -2571,8 +3658,20 @@
       <c r="C103" s="9">
         <v>4000</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D103" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E103" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H103" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A104" s="7" t="s">
         <v>59</v>
       </c>
@@ -2582,8 +3681,20 @@
       <c r="C104" s="9">
         <v>5000</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D104" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E104" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H104" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A105" s="7" t="s">
         <v>29</v>
       </c>
@@ -2593,8 +3704,20 @@
       <c r="C105" s="9">
         <v>41000</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D105" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E105" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H105" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A106" s="7" t="s">
         <v>56</v>
       </c>
@@ -2604,8 +3727,20 @@
       <c r="C106" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D106" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E106" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H106" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A107" s="7" t="s">
         <v>31</v>
       </c>
@@ -2615,8 +3750,20 @@
       <c r="C107" s="9">
         <v>737000</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D107" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>TROVATO</v>
+      </c>
+      <c r="E107" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H107" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A108" s="7" t="s">
         <v>59</v>
       </c>
@@ -2626,8 +3773,20 @@
       <c r="C108" s="9">
         <v>910000</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D108" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E108" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H108" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A109" s="7" t="s">
         <v>56</v>
       </c>
@@ -2637,8 +3796,20 @@
       <c r="C109" s="9">
         <v>241000</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D109" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E109" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H109" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A110" s="7" t="s">
         <v>56</v>
       </c>
@@ -2648,8 +3819,20 @@
       <c r="C110" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D110" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E110" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H110" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A111" s="7" t="s">
         <v>5</v>
       </c>
@@ -2659,8 +3842,20 @@
       <c r="C111" s="9">
         <v>112000</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D111" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E111" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H111" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A112" s="7" t="s">
         <v>47</v>
       </c>
@@ -2670,8 +3865,20 @@
       <c r="C112" s="9">
         <v>113000</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D112" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E112" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H112" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A113" s="7" t="s">
         <v>39</v>
       </c>
@@ -2681,8 +3888,20 @@
       <c r="C113" s="9">
         <v>121000</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D113" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E113" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H113" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A114" s="7" t="s">
         <v>36</v>
       </c>
@@ -2692,8 +3911,20 @@
       <c r="C114" s="9">
         <v>160000</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D114" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E114" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H114" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A115" s="7" t="s">
         <v>49</v>
       </c>
@@ -2703,8 +3934,20 @@
       <c r="C115" s="9">
         <v>195000</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D115" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E115" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H115" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A116" s="7" t="s">
         <v>20</v>
       </c>
@@ -2714,8 +3957,20 @@
       <c r="C116" s="9">
         <v>215000</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D116" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E116" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H116" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A117" s="7" t="s">
         <v>18</v>
       </c>
@@ -2725,8 +3980,20 @@
       <c r="C117" s="9">
         <v>321000</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D117" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E117" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H117" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A118" s="7" t="s">
         <v>46</v>
       </c>
@@ -2736,8 +4003,20 @@
       <c r="C118" s="9">
         <v>614000</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D118" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E118" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H118" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A119" s="7" t="s">
         <v>67</v>
       </c>
@@ -2747,8 +4026,20 @@
       <c r="C119" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D119" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E119" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H119" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A120" s="7" t="s">
         <v>21</v>
       </c>
@@ -2758,8 +4049,20 @@
       <c r="C120" s="9">
         <v>30000</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D120" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E120" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H120" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A121" s="7" t="s">
         <v>61</v>
       </c>
@@ -2769,8 +4072,20 @@
       <c r="C121" s="9">
         <v>34000</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D121" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E121" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H121" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A122" s="7" t="s">
         <v>42</v>
       </c>
@@ -2780,8 +4095,20 @@
       <c r="C122" s="9">
         <v>35000</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D122" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E122" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H122" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A123" s="7" t="s">
         <v>44</v>
       </c>
@@ -2791,8 +4118,20 @@
       <c r="C123" s="9">
         <v>77000</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D123" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E123" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H123" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A124" s="7" t="s">
         <v>189</v>
       </c>
@@ -2802,8 +4141,20 @@
       <c r="C124" s="9">
         <v>723000</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D124" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E124" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H124" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A125" s="7" t="s">
         <v>33</v>
       </c>
@@ -2813,8 +4164,20 @@
       <c r="C125" s="9">
         <v>742000</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D125" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>TROVATO</v>
+      </c>
+      <c r="E125" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H125" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A126" s="7" t="s">
         <v>20</v>
       </c>
@@ -2824,8 +4187,20 @@
       <c r="C126" s="9">
         <v>778000</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D126" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E126" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H126" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A127" s="7" t="s">
         <v>45</v>
       </c>
@@ -2835,8 +4210,20 @@
       <c r="C127" s="9">
         <v>878000</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D127" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E127" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H127" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A128" s="7" t="s">
         <v>50</v>
       </c>
@@ -2846,8 +4233,20 @@
       <c r="C128" s="9">
         <v>883000</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D128" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E128" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H128" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A129" s="7" t="s">
         <v>21</v>
       </c>
@@ -2857,8 +4256,20 @@
       <c r="C129" s="9">
         <v>913000</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D129" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E129" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H129" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A130" s="7" t="s">
         <v>60</v>
       </c>
@@ -2868,8 +4279,20 @@
       <c r="C130" s="9">
         <v>1125000</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D130" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E130" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H130" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A131" s="7" t="s">
         <v>69</v>
       </c>
@@ -2879,8 +4302,20 @@
       <c r="C131" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D131" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E131" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H131" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A132" s="7" t="s">
         <v>69</v>
       </c>
@@ -2890,8 +4325,20 @@
       <c r="C132" s="9">
         <v>33000</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D132" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E132" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H132" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A133" s="7" t="s">
         <v>57</v>
       </c>
@@ -2901,8 +4348,20 @@
       <c r="C133" s="9">
         <v>52000</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D133" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E133" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H133" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A134" s="7" t="s">
         <v>53</v>
       </c>
@@ -2912,8 +4371,20 @@
       <c r="C134" s="9">
         <v>97000</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D134" s="26" t="str">
+        <f t="shared" ref="D134:D197" si="6">IF(AND(B134="Abbigliamento",C134&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E134" s="26" t="str">
+        <f t="shared" ref="E134:E197" si="7">IF(A134="HHB",C134*0.22,"")</f>
+        <v/>
+      </c>
+      <c r="H134" s="26" t="str">
+        <f t="shared" ref="H134:H197" si="8">IF(AND(B134="Manuali",C134&lt;1000000),"VERO","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A135" s="7" t="s">
         <v>5</v>
       </c>
@@ -2923,8 +4394,20 @@
       <c r="C135" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D135" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E135" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H135" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A136" s="7" t="s">
         <v>31</v>
       </c>
@@ -2934,8 +4417,20 @@
       <c r="C136" s="9">
         <v>131000</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D136" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E136" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H136" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A137" s="7" t="s">
         <v>31</v>
       </c>
@@ -2945,8 +4440,20 @@
       <c r="C137" s="9">
         <v>169000</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D137" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E137" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H137" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A138" s="7" t="s">
         <v>47</v>
       </c>
@@ -2956,8 +4463,20 @@
       <c r="C138" s="9">
         <v>190000</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D138" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E138" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H138" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A139" s="7" t="s">
         <v>25</v>
       </c>
@@ -2967,8 +4486,20 @@
       <c r="C139" s="9">
         <v>191000</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D139" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E139" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H139" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A140" s="7" t="s">
         <v>65</v>
       </c>
@@ -2978,8 +4509,20 @@
       <c r="C140" s="9">
         <v>197000</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D140" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E140" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H140" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A141" s="7" t="s">
         <v>66</v>
       </c>
@@ -2989,8 +4532,20 @@
       <c r="C141" s="9">
         <v>201000</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D141" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E141" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H141" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A142" s="7" t="s">
         <v>33</v>
       </c>
@@ -3000,8 +4555,20 @@
       <c r="C142" s="9">
         <v>220000</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D142" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E142" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H142" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A143" s="7" t="s">
         <v>9</v>
       </c>
@@ -3011,8 +4578,20 @@
       <c r="C143" s="9">
         <v>250000</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D143" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E143" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H143" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A144" s="7" t="s">
         <v>65</v>
       </c>
@@ -3022,8 +4601,20 @@
       <c r="C144" s="9">
         <v>257000</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D144" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E144" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H144" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A145" s="7" t="s">
         <v>9</v>
       </c>
@@ -3033,8 +4624,20 @@
       <c r="C145" s="9">
         <v>278000</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D145" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E145" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H145" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A146" s="7" t="s">
         <v>70</v>
       </c>
@@ -3044,8 +4647,20 @@
       <c r="C146" s="9">
         <v>280000</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D146" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E146" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H146" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A147" s="7" t="s">
         <v>70</v>
       </c>
@@ -3055,8 +4670,20 @@
       <c r="C147" s="9">
         <v>300000</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D147" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E147" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H147" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A148" s="7" t="s">
         <v>73</v>
       </c>
@@ -3066,8 +4693,20 @@
       <c r="C148" s="9">
         <v>305000</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D148" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E148" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H148" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A149" s="7" t="s">
         <v>71</v>
       </c>
@@ -3077,8 +4716,20 @@
       <c r="C149" s="9">
         <v>335000</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D149" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E149" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H149" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A150" s="7" t="s">
         <v>27</v>
       </c>
@@ -3088,8 +4739,20 @@
       <c r="C150" s="9">
         <v>360000</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D150" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E150" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H150" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A151" s="7" t="s">
         <v>37</v>
       </c>
@@ -3099,8 +4762,20 @@
       <c r="C151" s="9">
         <v>429000</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D151" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E151" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H151" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="7" t="s">
         <v>60</v>
       </c>
@@ -3110,8 +4785,20 @@
       <c r="C152" s="9">
         <v>701000</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D152" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E152" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H152" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="7" t="s">
         <v>23</v>
       </c>
@@ -3119,8 +4806,20 @@
         <v>24</v>
       </c>
       <c r="C153" s="10"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D153" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E153" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H153" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A154" s="7" t="s">
         <v>71</v>
       </c>
@@ -3130,8 +4829,20 @@
       <c r="C154" s="9">
         <v>90000</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D154" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E154" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H154" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A155" s="7" t="s">
         <v>25</v>
       </c>
@@ -3141,8 +4852,20 @@
       <c r="C155" s="9">
         <v>69000</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D155" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E155" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H155" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A156" s="7" t="s">
         <v>73</v>
       </c>
@@ -3152,8 +4875,20 @@
       <c r="C156" s="9">
         <v>89000</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D156" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E156" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H156" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A157" s="7" t="s">
         <v>62</v>
       </c>
@@ -3163,8 +4898,20 @@
       <c r="C157" s="9">
         <v>138000</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D157" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E157" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H157" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A158" s="7" t="s">
         <v>33</v>
       </c>
@@ -3174,8 +4921,20 @@
       <c r="C158" s="9">
         <v>196000</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D158" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E158" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H158" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A159" s="7" t="s">
         <v>32</v>
       </c>
@@ -3185,8 +4944,20 @@
       <c r="C159" s="9">
         <v>329000</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D159" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E159" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H159" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A160" s="7" t="s">
         <v>74</v>
       </c>
@@ -3196,8 +4967,20 @@
       <c r="C160" s="9">
         <v>295000</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D160" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E160" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H160" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A161" s="7" t="s">
         <v>74</v>
       </c>
@@ -3207,8 +4990,20 @@
       <c r="C161" s="9">
         <v>19000</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D161" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E161" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H161" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A162" s="7" t="s">
         <v>63</v>
       </c>
@@ -3218,8 +5013,20 @@
       <c r="C162" s="9">
         <v>26000</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D162" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E162" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H162" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A163" s="7" t="s">
         <v>61</v>
       </c>
@@ -3229,8 +5036,20 @@
       <c r="C163" s="9">
         <v>28000</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D163" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E163" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H163" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A164" s="7" t="s">
         <v>41</v>
       </c>
@@ -3240,8 +5059,20 @@
       <c r="C164" s="9">
         <v>56000</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D164" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E164" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H164" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A165" s="7" t="s">
         <v>193</v>
       </c>
@@ -3251,8 +5082,20 @@
       <c r="C165" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D165" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E165" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H165" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A166" s="7" t="s">
         <v>62</v>
       </c>
@@ -3262,8 +5105,20 @@
       <c r="C166" s="9">
         <v>216000</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D166" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E166" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H166" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A167" s="7" t="s">
         <v>25</v>
       </c>
@@ -3273,8 +5128,20 @@
       <c r="C167" s="9">
         <v>250000</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D167" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E167" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H167" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A168" s="7" t="s">
         <v>13</v>
       </c>
@@ -3284,8 +5151,20 @@
       <c r="C168" s="9">
         <v>382000</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D168" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E168" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H168" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A169" s="7" t="s">
         <v>34</v>
       </c>
@@ -3295,8 +5174,20 @@
       <c r="C169" s="9">
         <v>524000</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D169" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E169" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H169" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A170" s="7" t="s">
         <v>193</v>
       </c>
@@ -3306,8 +5197,20 @@
       <c r="C170" s="9">
         <v>757000</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D170" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E170" s="26">
+        <f t="shared" si="7"/>
+        <v>166540</v>
+      </c>
+      <c r="H170" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A171" s="7" t="s">
         <v>15</v>
       </c>
@@ -3317,8 +5220,20 @@
       <c r="C171" s="9">
         <v>1045000</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D171" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E171" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H171" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A172" s="7" t="s">
         <v>55</v>
       </c>
@@ -3328,8 +5243,20 @@
       <c r="C172" s="9">
         <v>1568000</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D172" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E172" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H172" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A173" s="7" t="s">
         <v>7</v>
       </c>
@@ -3339,8 +5266,20 @@
       <c r="C173" s="9">
         <v>117000</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D173" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E173" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H173" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v>VERO</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A174" s="7" t="s">
         <v>62</v>
       </c>
@@ -3350,8 +5289,20 @@
       <c r="C174" s="9">
         <v>158000</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D174" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E174" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H174" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A175" s="7" t="s">
         <v>67</v>
       </c>
@@ -3361,8 +5312,20 @@
       <c r="C175" s="9">
         <v>260000</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D175" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E175" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H175" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A176" s="7" t="s">
         <v>44</v>
       </c>
@@ -3372,8 +5335,20 @@
       <c r="C176" s="9">
         <v>193000</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D176" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E176" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H176" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A177" s="7" t="s">
         <v>11</v>
       </c>
@@ -3383,8 +5358,20 @@
       <c r="C177" s="9">
         <v>270000</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D177" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E177" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H177" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A178" s="7" t="s">
         <v>17</v>
       </c>
@@ -3394,8 +5381,20 @@
       <c r="C178" s="9">
         <v>314000</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D178" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E178" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H178" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A179" s="7" t="s">
         <v>52</v>
       </c>
@@ -3405,8 +5404,20 @@
       <c r="C179" s="9">
         <v>894000</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D179" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E179" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H179" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A180" s="7" t="s">
         <v>31</v>
       </c>
@@ -3416,8 +5427,20 @@
       <c r="C180" s="9">
         <v>1040000</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D180" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v>TROVATO</v>
+      </c>
+      <c r="E180" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H180" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A181" s="7" t="s">
         <v>25</v>
       </c>
@@ -3427,8 +5450,20 @@
       <c r="C181" s="9">
         <v>8000</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D181" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E181" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H181" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A182" s="7" t="s">
         <v>9</v>
       </c>
@@ -3438,8 +5473,20 @@
       <c r="C182" s="9">
         <v>10000</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D182" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E182" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H182" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A183" s="7" t="s">
         <v>59</v>
       </c>
@@ -3449,8 +5496,20 @@
       <c r="C183" s="9">
         <v>24000</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D183" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E183" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H183" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A184" s="7" t="s">
         <v>29</v>
       </c>
@@ -3460,8 +5519,20 @@
       <c r="C184" s="9">
         <v>11000</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D184" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E184" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H184" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A185" s="7" t="s">
         <v>56</v>
       </c>
@@ -3471,8 +5542,20 @@
       <c r="C185" s="9">
         <v>10000</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D185" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E185" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H185" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A186" s="7" t="s">
         <v>31</v>
       </c>
@@ -3482,8 +5565,20 @@
       <c r="C186" s="9">
         <v>26000</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D186" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E186" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H186" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A187" s="7" t="s">
         <v>59</v>
       </c>
@@ -3491,8 +5586,20 @@
         <v>38</v>
       </c>
       <c r="C187" s="10"/>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D187" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E187" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H187" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A188" s="7" t="s">
         <v>56</v>
       </c>
@@ -3502,8 +5609,20 @@
       <c r="C188" s="9">
         <v>22000</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D188" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E188" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H188" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A189" s="7" t="s">
         <v>56</v>
       </c>
@@ -3513,8 +5632,20 @@
       <c r="C189" s="9">
         <v>63000</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D189" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E189" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H189" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A190" s="7" t="s">
         <v>5</v>
       </c>
@@ -3524,8 +5655,20 @@
       <c r="C190" s="9">
         <v>63000</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D190" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E190" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H190" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A191" s="7" t="s">
         <v>47</v>
       </c>
@@ -3535,8 +5678,20 @@
       <c r="C191" s="9">
         <v>26000</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D191" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E191" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H191" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A192" s="7" t="s">
         <v>39</v>
       </c>
@@ -3546,8 +5701,20 @@
       <c r="C192" s="9">
         <v>25000</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D192" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E192" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H192" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A193" s="7" t="s">
         <v>36</v>
       </c>
@@ -3557,8 +5724,20 @@
       <c r="C193" s="9">
         <v>25000</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D193" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E193" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H193" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A194" s="7" t="s">
         <v>49</v>
       </c>
@@ -3568,8 +5747,20 @@
       <c r="C194" s="9">
         <v>46000</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D194" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E194" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H194" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A195" s="7" t="s">
         <v>20</v>
       </c>
@@ -3577,8 +5768,20 @@
         <v>10</v>
       </c>
       <c r="C195" s="10"/>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D195" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E195" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H195" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A196" s="7" t="s">
         <v>18</v>
       </c>
@@ -3588,8 +5791,20 @@
       <c r="C196" s="9">
         <v>37000</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D196" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E196" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H196" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A197" s="7" t="s">
         <v>46</v>
       </c>
@@ -3599,8 +5814,20 @@
       <c r="C197" s="9">
         <v>37000</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D197" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E197" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H197" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A198" s="7" t="s">
         <v>67</v>
       </c>
@@ -3610,8 +5837,20 @@
       <c r="C198" s="9">
         <v>11000</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D198" s="26" t="str">
+        <f t="shared" ref="D198:D261" si="9">IF(AND(B198="Abbigliamento",C198&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E198" s="26" t="str">
+        <f t="shared" ref="E198:E261" si="10">IF(A198="HHB",C198*0.22,"")</f>
+        <v/>
+      </c>
+      <c r="H198" s="26" t="str">
+        <f t="shared" ref="H198:H261" si="11">IF(AND(B198="Manuali",C198&lt;1000000),"VERO","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A199" s="7" t="s">
         <v>21</v>
       </c>
@@ -3621,8 +5860,20 @@
       <c r="C199" s="9">
         <v>46000</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D199" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E199" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H199" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A200" s="7" t="s">
         <v>61</v>
       </c>
@@ -3632,8 +5883,20 @@
       <c r="C200" s="9">
         <v>19000</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D200" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E200" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H200" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A201" s="7" t="s">
         <v>42</v>
       </c>
@@ -3643,8 +5906,20 @@
       <c r="C201" s="9">
         <v>13000</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D201" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E201" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H201" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A202" s="7" t="s">
         <v>44</v>
       </c>
@@ -3654,8 +5929,20 @@
       <c r="C202" s="9">
         <v>26000</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D202" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E202" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H202" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A203" s="7" t="s">
         <v>190</v>
       </c>
@@ -3665,8 +5952,20 @@
       <c r="C203" s="9">
         <v>26000</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D203" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E203" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H203" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A204" s="7" t="s">
         <v>33</v>
       </c>
@@ -3676,8 +5975,20 @@
       <c r="C204" s="9">
         <v>20000</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D204" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E204" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H204" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A205" s="7" t="s">
         <v>20</v>
       </c>
@@ -3687,8 +5998,20 @@
       <c r="C205" s="9">
         <v>49000</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D205" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E205" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H205" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A206" s="7" t="s">
         <v>45</v>
       </c>
@@ -3698,8 +6021,20 @@
       <c r="C206" s="9">
         <v>33000</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D206" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E206" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H206" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A207" s="7" t="s">
         <v>50</v>
       </c>
@@ -3709,8 +6044,20 @@
       <c r="C207" s="9">
         <v>68000</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D207" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E207" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H207" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A208" s="7" t="s">
         <v>21</v>
       </c>
@@ -3720,8 +6067,20 @@
       <c r="C208" s="9">
         <v>33000</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D208" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E208" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H208" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A209" s="7" t="s">
         <v>60</v>
       </c>
@@ -3731,8 +6090,20 @@
       <c r="C209" s="9">
         <v>147000</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D209" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E209" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H209" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A210" s="7" t="s">
         <v>69</v>
       </c>
@@ -3742,8 +6113,20 @@
       <c r="C210" s="9">
         <v>151000</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D210" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E210" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H210" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A211" s="7" t="s">
         <v>69</v>
       </c>
@@ -3753,8 +6136,20 @@
       <c r="C211" s="9">
         <v>197000</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D211" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E211" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H211" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A212" s="7" t="s">
         <v>57</v>
       </c>
@@ -3764,8 +6159,20 @@
       <c r="C212" s="9">
         <v>310000</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D212" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E212" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H212" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A213" s="7" t="s">
         <v>53</v>
       </c>
@@ -3775,8 +6182,20 @@
       <c r="C213" s="9">
         <v>271000</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D213" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E213" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H213" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A214" s="7" t="s">
         <v>5</v>
       </c>
@@ -3786,8 +6205,20 @@
       <c r="C214" s="9">
         <v>458000</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D214" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v>TROVATO</v>
+      </c>
+      <c r="E214" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H214" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A215" s="7" t="s">
         <v>31</v>
       </c>
@@ -3797,8 +6228,20 @@
       <c r="C215" s="9">
         <v>412000</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D215" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v>TROVATO</v>
+      </c>
+      <c r="E215" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H215" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A216" s="7" t="s">
         <v>31</v>
       </c>
@@ -3808,8 +6251,20 @@
       <c r="C216" s="9">
         <v>807000</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D216" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v>TROVATO</v>
+      </c>
+      <c r="E216" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H216" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A217" s="7" t="s">
         <v>47</v>
       </c>
@@ -3819,8 +6274,20 @@
       <c r="C217" s="9">
         <v>4000</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D217" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E217" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H217" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A218" s="7" t="s">
         <v>25</v>
       </c>
@@ -3830,8 +6297,20 @@
       <c r="C218" s="9">
         <v>81000</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D218" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E218" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H218" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A219" s="7" t="s">
         <v>65</v>
       </c>
@@ -3841,8 +6320,20 @@
       <c r="C219" s="9">
         <v>125000</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D219" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E219" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H219" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A220" s="7" t="s">
         <v>66</v>
       </c>
@@ -3852,8 +6343,20 @@
       <c r="C220" s="9">
         <v>98000</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D220" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E220" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H220" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A221" s="7" t="s">
         <v>33</v>
       </c>
@@ -3863,8 +6366,20 @@
       <c r="C221" s="9">
         <v>140000</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D221" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E221" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H221" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A222" s="7" t="s">
         <v>9</v>
       </c>
@@ -3874,8 +6389,20 @@
       <c r="C222" s="9">
         <v>5000</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D222" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E222" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H222" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A223" s="7" t="s">
         <v>65</v>
       </c>
@@ -3885,8 +6412,20 @@
       <c r="C223" s="9">
         <v>6000</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D223" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E223" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H223" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A224" s="7" t="s">
         <v>9</v>
       </c>
@@ -3896,8 +6435,20 @@
       <c r="C224" s="9">
         <v>9000</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D224" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E224" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H224" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A225" s="7" t="s">
         <v>70</v>
       </c>
@@ -3907,8 +6458,20 @@
       <c r="C225" s="9">
         <v>8000</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D225" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E225" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H225" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A226" s="7" t="s">
         <v>70</v>
       </c>
@@ -3918,8 +6481,20 @@
       <c r="C226" s="9">
         <v>11000</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D226" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E226" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H226" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A227" s="7" t="s">
         <v>73</v>
       </c>
@@ -3929,8 +6504,20 @@
       <c r="C227" s="9">
         <v>21000</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D227" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E227" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H227" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A228" s="7" t="s">
         <v>71</v>
       </c>
@@ -3940,8 +6527,20 @@
       <c r="C228" s="9">
         <v>14000</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D228" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E228" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H228" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A229" s="7" t="s">
         <v>27</v>
       </c>
@@ -3951,8 +6550,20 @@
       <c r="C229" s="9">
         <v>23000</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D229" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E229" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H229" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A230" s="7" t="s">
         <v>37</v>
       </c>
@@ -3962,8 +6573,20 @@
       <c r="C230" s="9">
         <v>51000</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D230" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E230" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H230" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A231" s="7" t="s">
         <v>60</v>
       </c>
@@ -3971,8 +6594,20 @@
         <v>38</v>
       </c>
       <c r="C231" s="10"/>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D231" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E231" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H231" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A232" s="7" t="s">
         <v>23</v>
       </c>
@@ -3982,8 +6617,20 @@
       <c r="C232" s="9">
         <v>198000</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D232" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E232" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H232" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A233" s="7" t="s">
         <v>71</v>
       </c>
@@ -3993,8 +6640,20 @@
       <c r="C233" s="9">
         <v>167000</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D233" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E233" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H233" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A234" s="7" t="s">
         <v>25</v>
       </c>
@@ -4004,8 +6663,20 @@
       <c r="C234" s="9">
         <v>95000</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D234" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E234" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H234" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A235" s="7" t="s">
         <v>73</v>
       </c>
@@ -4015,8 +6686,20 @@
       <c r="C235" s="9">
         <v>141000</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D235" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E235" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H235" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A236" s="7" t="s">
         <v>62</v>
       </c>
@@ -4026,8 +6709,20 @@
       <c r="C236" s="9">
         <v>351000</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D236" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E236" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H236" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A237" s="7" t="s">
         <v>33</v>
       </c>
@@ -4037,8 +6732,20 @@
       <c r="C237" s="9">
         <v>414000</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D237" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v>TROVATO</v>
+      </c>
+      <c r="E237" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H237" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A238" s="7" t="s">
         <v>32</v>
       </c>
@@ -4048,8 +6755,20 @@
       <c r="C238" s="9">
         <v>61000</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D238" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E238" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H238" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A239" s="7" t="s">
         <v>74</v>
       </c>
@@ -4059,8 +6778,20 @@
       <c r="C239" s="9">
         <v>893000</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D239" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E239" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H239" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A240" s="7" t="s">
         <v>74</v>
       </c>
@@ -4070,8 +6801,20 @@
       <c r="C240" s="9">
         <v>985000</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D240" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E240" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H240" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A241" s="7" t="s">
         <v>63</v>
       </c>
@@ -4081,8 +6824,20 @@
       <c r="C241" s="9">
         <v>296000</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D241" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E241" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H241" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A242" s="7" t="s">
         <v>61</v>
       </c>
@@ -4092,8 +6847,20 @@
       <c r="C242" s="9">
         <v>685000</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D242" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v>TROVATO</v>
+      </c>
+      <c r="E242" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H242" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A243" s="7" t="s">
         <v>41</v>
       </c>
@@ -4103,8 +6870,20 @@
       <c r="C243" s="9">
         <v>1138000</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D243" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v>TROVATO</v>
+      </c>
+      <c r="E243" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H243" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A244" s="7" t="s">
         <v>193</v>
       </c>
@@ -4114,8 +6893,20 @@
       <c r="C244" s="9">
         <v>1334000</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D244" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E244" s="26">
+        <f t="shared" si="10"/>
+        <v>293480</v>
+      </c>
+      <c r="H244" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A245" s="7" t="s">
         <v>62</v>
       </c>
@@ -4125,8 +6916,20 @@
       <c r="C245" s="9">
         <v>30000</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D245" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E245" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H245" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A246" s="7" t="s">
         <v>25</v>
       </c>
@@ -4136,8 +6939,20 @@
       <c r="C246" s="9">
         <v>30000</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D246" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E246" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H246" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A247" s="7" t="s">
         <v>13</v>
       </c>
@@ -4147,8 +6962,20 @@
       <c r="C247" s="9">
         <v>406000</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D247" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E247" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H247" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A248" s="7" t="s">
         <v>34</v>
       </c>
@@ -4158,8 +6985,20 @@
       <c r="C248" s="9">
         <v>197000</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D248" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E248" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H248" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A249" s="7" t="s">
         <v>193</v>
       </c>
@@ -4169,8 +7008,20 @@
       <c r="C249" s="9">
         <v>645000</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D249" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E249" s="26">
+        <f t="shared" si="10"/>
+        <v>141900</v>
+      </c>
+      <c r="H249" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A250" s="7" t="s">
         <v>15</v>
       </c>
@@ -4180,8 +7031,20 @@
       <c r="C250" s="9">
         <v>645000</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D250" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E250" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H250" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A251" s="7" t="s">
         <v>55</v>
       </c>
@@ -4191,8 +7054,20 @@
       <c r="C251" s="9">
         <v>259000</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D251" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E251" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H251" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A252" s="7" t="s">
         <v>7</v>
       </c>
@@ -4202,8 +7077,20 @@
       <c r="C252" s="9">
         <v>646000</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D252" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E252" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H252" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v>VERO</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A253" s="7" t="s">
         <v>62</v>
       </c>
@@ -4213,8 +7100,20 @@
       <c r="C253" s="9">
         <v>259000</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D253" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E253" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H253" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A254" s="7" t="s">
         <v>67</v>
       </c>
@@ -4224,8 +7123,20 @@
       <c r="C254" s="9">
         <v>645000</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D254" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E254" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H254" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A255" s="7" t="s">
         <v>44</v>
       </c>
@@ -4235,8 +7146,20 @@
       <c r="C255" s="9">
         <v>879000</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D255" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E255" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H255" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A256" s="7" t="s">
         <v>11</v>
       </c>
@@ -4246,8 +7169,20 @@
       <c r="C256" s="9">
         <v>259000</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D256" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E256" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H256" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A257" s="7" t="s">
         <v>17</v>
       </c>
@@ -4257,8 +7192,20 @@
       <c r="C257" s="9">
         <v>274000</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D257" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E257" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H257" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A258" s="7" t="s">
         <v>52</v>
       </c>
@@ -4268,8 +7215,20 @@
       <c r="C258" s="9">
         <v>975000</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D258" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E258" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H258" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A259" s="7" t="s">
         <v>31</v>
       </c>
@@ -4279,8 +7238,20 @@
       <c r="C259" s="9">
         <v>480000</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D259" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v>TROVATO</v>
+      </c>
+      <c r="E259" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H259" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A260" s="7" t="s">
         <v>25</v>
       </c>
@@ -4290,8 +7261,20 @@
       <c r="C260" s="9">
         <v>1187000</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D260" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E260" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H260" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A261" s="7" t="s">
         <v>9</v>
       </c>
@@ -4301,8 +7284,20 @@
       <c r="C261" s="9">
         <v>832000</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D261" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E261" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H261" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A262" s="7" t="s">
         <v>59</v>
       </c>
@@ -4312,8 +7307,20 @@
       <c r="C262" s="9">
         <v>227000</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D262" s="26" t="str">
+        <f t="shared" ref="D262:D325" si="12">IF(AND(B262="Abbigliamento",C262&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E262" s="26" t="str">
+        <f t="shared" ref="E262:E325" si="13">IF(A262="HHB",C262*0.22,"")</f>
+        <v/>
+      </c>
+      <c r="H262" s="26" t="str">
+        <f t="shared" ref="H262:H325" si="14">IF(AND(B262="Manuali",C262&lt;1000000),"VERO","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A263" s="7" t="s">
         <v>29</v>
       </c>
@@ -4323,8 +7330,20 @@
       <c r="C263" s="9">
         <v>98000</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D263" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E263" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H263" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A264" s="7" t="s">
         <v>56</v>
       </c>
@@ -4334,8 +7353,20 @@
       <c r="C264" s="9">
         <v>1190000</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D264" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E264" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H264" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A265" s="7" t="s">
         <v>31</v>
       </c>
@@ -4345,8 +7376,20 @@
       <c r="C265" s="9">
         <v>300000</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D265" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E265" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H265" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A266" s="7" t="s">
         <v>59</v>
       </c>
@@ -4356,8 +7399,20 @@
       <c r="C266" s="9">
         <v>2407000</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D266" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E266" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H266" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A267" s="7" t="s">
         <v>56</v>
       </c>
@@ -4367,8 +7422,20 @@
       <c r="C267" s="9">
         <v>1021000</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D267" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E267" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H267" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A268" s="7" t="s">
         <v>56</v>
       </c>
@@ -4378,8 +7445,20 @@
       <c r="C268" s="9">
         <v>646000</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D268" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E268" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H268" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A269" s="7" t="s">
         <v>5</v>
       </c>
@@ -4389,8 +7468,20 @@
       <c r="C269" s="9">
         <v>259000</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D269" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E269" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H269" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A270" s="7" t="s">
         <v>47</v>
       </c>
@@ -4400,8 +7491,20 @@
       <c r="C270" s="9">
         <v>193000</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D270" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E270" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H270" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A271" s="7" t="s">
         <v>39</v>
       </c>
@@ -4411,8 +7514,20 @@
       <c r="C271" s="9">
         <v>96000</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D271" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E271" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H271" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A272" s="7" t="s">
         <v>36</v>
       </c>
@@ -4422,8 +7537,20 @@
       <c r="C272" s="9">
         <v>594000</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D272" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E272" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H272" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A273" s="7" t="s">
         <v>49</v>
       </c>
@@ -4433,8 +7560,20 @@
       <c r="C273" s="9">
         <v>282000</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D273" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E273" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H273" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A274" s="7" t="s">
         <v>20</v>
       </c>
@@ -4444,8 +7583,20 @@
       <c r="C274" s="9">
         <v>1814000</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D274" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E274" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H274" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A275" s="7" t="s">
         <v>18</v>
       </c>
@@ -4455,8 +7606,20 @@
       <c r="C275" s="9">
         <v>193000</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D275" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E275" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H275" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A276" s="7" t="s">
         <v>46</v>
       </c>
@@ -4466,8 +7629,20 @@
       <c r="C276" s="9">
         <v>654000</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D276" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E276" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H276" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A277" s="7" t="s">
         <v>67</v>
       </c>
@@ -4477,8 +7652,20 @@
       <c r="C277" s="9">
         <v>729000</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D277" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E277" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H277" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A278" s="7" t="s">
         <v>21</v>
       </c>
@@ -4488,8 +7675,20 @@
       <c r="C278" s="9">
         <v>632000</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D278" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E278" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H278" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A279" s="7" t="s">
         <v>61</v>
       </c>
@@ -4499,8 +7698,20 @@
       <c r="C279" s="9">
         <v>240000</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D279" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E279" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H279" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A280" s="7" t="s">
         <v>42</v>
       </c>
@@ -4510,8 +7721,20 @@
       <c r="C280" s="9">
         <v>955000</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D280" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E280" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H280" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A281" s="7" t="s">
         <v>44</v>
       </c>
@@ -4521,8 +7744,20 @@
       <c r="C281" s="9">
         <v>1126000</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D281" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E281" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H281" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A282" s="7" t="s">
         <v>191</v>
       </c>
@@ -4530,8 +7765,20 @@
         <v>58</v>
       </c>
       <c r="C282" s="10"/>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D282" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E282" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H282" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A283" s="7" t="s">
         <v>33</v>
       </c>
@@ -4541,8 +7788,20 @@
       <c r="C283" s="9">
         <v>297000</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D283" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E283" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H283" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A284" s="7" t="s">
         <v>20</v>
       </c>
@@ -4552,8 +7811,20 @@
       <c r="C284" s="9">
         <v>646000</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D284" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E284" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H284" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A285" s="7" t="s">
         <v>45</v>
       </c>
@@ -4563,8 +7834,20 @@
       <c r="C285" s="9">
         <v>714000</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D285" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E285" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H285" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A286" s="7" t="s">
         <v>50</v>
       </c>
@@ -4574,8 +7857,20 @@
       <c r="C286" s="9">
         <v>807000</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D286" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E286" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H286" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A287" s="7" t="s">
         <v>21</v>
       </c>
@@ -4585,8 +7880,20 @@
       <c r="C287" s="9">
         <v>591000</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D287" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E287" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H287" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A288" s="7" t="s">
         <v>60</v>
       </c>
@@ -4596,8 +7903,20 @@
       <c r="C288" s="9">
         <v>918000</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D288" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E288" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H288" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A289" s="7" t="s">
         <v>69</v>
       </c>
@@ -4607,8 +7926,20 @@
       <c r="C289" s="9">
         <v>1265000</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D289" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E289" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H289" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A290" s="7" t="s">
         <v>69</v>
       </c>
@@ -4618,8 +7949,20 @@
       <c r="C290" s="9">
         <v>256000</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D290" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E290" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H290" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A291" s="7" t="s">
         <v>57</v>
       </c>
@@ -4629,8 +7972,20 @@
       <c r="C291" s="9">
         <v>371000</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D291" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E291" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H291" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A292" s="7" t="s">
         <v>53</v>
       </c>
@@ -4640,8 +7995,20 @@
       <c r="C292" s="9">
         <v>457000</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D292" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E292" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H292" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A293" s="7" t="s">
         <v>5</v>
       </c>
@@ -4651,8 +8018,20 @@
       <c r="C293" s="9">
         <v>642000</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D293" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v>TROVATO</v>
+      </c>
+      <c r="E293" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H293" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A294" s="7" t="s">
         <v>31</v>
       </c>
@@ -4662,8 +8041,20 @@
       <c r="C294" s="9">
         <v>1571000</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D294" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v>TROVATO</v>
+      </c>
+      <c r="E294" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H294" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A295" s="7" t="s">
         <v>31</v>
       </c>
@@ -4673,8 +8064,20 @@
       <c r="C295" s="9">
         <v>756000</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D295" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v>TROVATO</v>
+      </c>
+      <c r="E295" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H295" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A296" s="7" t="s">
         <v>47</v>
       </c>
@@ -4684,8 +8087,20 @@
       <c r="C296" s="9">
         <v>1571000</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D296" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E296" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H296" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A297" s="7" t="s">
         <v>25</v>
       </c>
@@ -4695,8 +8110,20 @@
       <c r="C297" s="9">
         <v>2716000</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D297" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E297" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H297" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A298" s="7" t="s">
         <v>65</v>
       </c>
@@ -4706,8 +8133,20 @@
       <c r="C298" s="9">
         <v>640000</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D298" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E298" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H298" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A299" s="7" t="s">
         <v>66</v>
       </c>
@@ -4717,8 +8156,20 @@
       <c r="C299" s="9">
         <v>255000</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D299" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E299" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H299" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A300" s="7" t="s">
         <v>33</v>
       </c>
@@ -4728,8 +8179,20 @@
       <c r="C300" s="9">
         <v>413000</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D300" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v>TROVATO</v>
+      </c>
+      <c r="E300" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H300" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A301" s="7" t="s">
         <v>9</v>
       </c>
@@ -4739,8 +8202,20 @@
       <c r="C301" s="9">
         <v>361000</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D301" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E301" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H301" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A302" s="7" t="s">
         <v>65</v>
       </c>
@@ -4750,8 +8225,20 @@
       <c r="C302" s="9">
         <v>544000</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D302" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E302" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H302" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A303" s="7" t="s">
         <v>9</v>
       </c>
@@ -4761,8 +8248,20 @@
       <c r="C303" s="9">
         <v>678000</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D303" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E303" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H303" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A304" s="7" t="s">
         <v>70</v>
       </c>
@@ -4772,8 +8271,20 @@
       <c r="C304" s="9">
         <v>1054000</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D304" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E304" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H304" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A305" s="7" t="s">
         <v>70</v>
       </c>
@@ -4783,8 +8294,20 @@
       <c r="C305" s="9">
         <v>482000</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D305" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E305" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H305" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A306" s="7" t="s">
         <v>73</v>
       </c>
@@ -4794,8 +8317,20 @@
       <c r="C306" s="9">
         <v>722000</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D306" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E306" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H306" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A307" s="7" t="s">
         <v>71</v>
       </c>
@@ -4805,8 +8340,20 @@
       <c r="C307" s="9">
         <v>269000</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D307" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E307" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H307" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A308" s="7" t="s">
         <v>27</v>
       </c>
@@ -4816,8 +8363,20 @@
       <c r="C308" s="9">
         <v>371000</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D308" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E308" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H308" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A309" s="7" t="s">
         <v>37</v>
       </c>
@@ -4827,8 +8386,20 @@
       <c r="C309" s="9">
         <v>462000</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D309" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E309" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H309" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A310" s="7" t="s">
         <v>60</v>
       </c>
@@ -4838,8 +8409,20 @@
       <c r="C310" s="9">
         <v>541000</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D310" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E310" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H310" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A311" s="7" t="s">
         <v>23</v>
       </c>
@@ -4849,8 +8432,20 @@
       <c r="C311" s="9">
         <v>648000</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D311" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E311" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H311" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A312" s="7" t="s">
         <v>71</v>
       </c>
@@ -4860,8 +8455,20 @@
       <c r="C312" s="9">
         <v>644000</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D312" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E312" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H312" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A313" s="7" t="s">
         <v>25</v>
       </c>
@@ -4871,8 +8478,20 @@
       <c r="C313" s="9">
         <v>902000</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D313" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E313" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H313" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A314" s="7" t="s">
         <v>73</v>
       </c>
@@ -4882,8 +8501,20 @@
       <c r="C314" s="9">
         <v>722000</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D314" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E314" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H314" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A315" s="7" t="s">
         <v>62</v>
       </c>
@@ -4893,8 +8524,20 @@
       <c r="C315" s="9">
         <v>1457000</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D315" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E315" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H315" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A316" s="7" t="s">
         <v>33</v>
       </c>
@@ -4904,8 +8547,20 @@
       <c r="C316" s="9">
         <v>1786000</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D316" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v>TROVATO</v>
+      </c>
+      <c r="E316" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H316" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A317" s="7" t="s">
         <v>32</v>
       </c>
@@ -4913,8 +8568,20 @@
         <v>22</v>
       </c>
       <c r="C317" s="10"/>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D317" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E317" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H317" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A318" s="7" t="s">
         <v>74</v>
       </c>
@@ -4924,8 +8591,20 @@
       <c r="C318" s="9">
         <v>85000</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D318" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E318" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H318" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A319" s="7" t="s">
         <v>74</v>
       </c>
@@ -4935,8 +8614,20 @@
       <c r="C319" s="9">
         <v>84000</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D319" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E319" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H319" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A320" s="7" t="s">
         <v>63</v>
       </c>
@@ -4946,8 +8637,20 @@
       <c r="C320" s="9">
         <v>115000</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D320" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E320" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H320" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A321" s="7" t="s">
         <v>61</v>
       </c>
@@ -4957,8 +8660,20 @@
       <c r="C321" s="9">
         <v>152000</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D321" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E321" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H321" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A322" s="7" t="s">
         <v>41</v>
       </c>
@@ -4968,8 +8683,20 @@
       <c r="C322" s="9">
         <v>82000</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D322" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E322" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H322" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A323" s="7" t="s">
         <v>193</v>
       </c>
@@ -4979,8 +8706,20 @@
       <c r="C323" s="9">
         <v>84000</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D323" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E323" s="26">
+        <f t="shared" si="13"/>
+        <v>18480</v>
+      </c>
+      <c r="H323" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A324" s="7" t="s">
         <v>62</v>
       </c>
@@ -4990,8 +8729,20 @@
       <c r="C324" s="9">
         <v>115000</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D324" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E324" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H324" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A325" s="7" t="s">
         <v>25</v>
       </c>
@@ -5001,8 +8752,20 @@
       <c r="C325" s="9">
         <v>153000</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D325" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E325" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H325" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A326" s="7" t="s">
         <v>13</v>
       </c>
@@ -5012,8 +8775,20 @@
       <c r="C326" s="9">
         <v>80000</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D326" s="26" t="str">
+        <f t="shared" ref="D326:D340" si="15">IF(AND(B326="Abbigliamento",C326&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E326" s="26" t="str">
+        <f t="shared" ref="E326:E340" si="16">IF(A326="HHB",C326*0.22,"")</f>
+        <v/>
+      </c>
+      <c r="H326" s="26" t="str">
+        <f t="shared" ref="H326:H340" si="17">IF(AND(B326="Manuali",C326&lt;1000000),"VERO","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A327" s="7" t="s">
         <v>34</v>
       </c>
@@ -5023,8 +8798,20 @@
       <c r="C327" s="9">
         <v>102000</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D327" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="E327" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H327" s="26" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A328" s="7" t="s">
         <v>193</v>
       </c>
@@ -5034,8 +8821,20 @@
       <c r="C328" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D328" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="E328" s="26">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H328" s="26" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A329" s="7" t="s">
         <v>15</v>
       </c>
@@ -5045,8 +8844,20 @@
       <c r="C329" s="9">
         <v>198000</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D329" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="E329" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H329" s="26" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A330" s="7" t="s">
         <v>55</v>
       </c>
@@ -5056,8 +8867,20 @@
       <c r="C330" s="9">
         <v>233000</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D330" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="E330" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H330" s="26" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A331" s="7" t="s">
         <v>7</v>
       </c>
@@ -5067,8 +8890,20 @@
       <c r="C331" s="9">
         <v>279000</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D331" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="E331" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H331" s="26" t="str">
+        <f t="shared" si="17"/>
+        <v>VERO</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A332" s="7" t="s">
         <v>62</v>
       </c>
@@ -5078,8 +8913,20 @@
       <c r="C332" s="9">
         <v>298000</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D332" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="E332" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H332" s="26" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A333" s="7" t="s">
         <v>67</v>
       </c>
@@ -5089,8 +8936,20 @@
       <c r="C333" s="9">
         <v>478000</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D333" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="E333" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H333" s="26" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A334" s="7" t="s">
         <v>44</v>
       </c>
@@ -5100,8 +8959,20 @@
       <c r="C334" s="9">
         <v>626000</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D334" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="E334" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H334" s="26" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A335" s="7" t="s">
         <v>11</v>
       </c>
@@ -5111,8 +8982,20 @@
       <c r="C335" s="9">
         <v>757000</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D335" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="E335" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H335" s="26" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A336" s="7" t="s">
         <v>17</v>
       </c>
@@ -5122,8 +9005,20 @@
       <c r="C336" s="9">
         <v>1128000</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D336" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="E336" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H336" s="26" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A337" s="7" t="s">
         <v>52</v>
       </c>
@@ -5133,8 +9028,20 @@
       <c r="C337" s="9">
         <v>1527000</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D337" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="E337" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H337" s="26" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A338" s="7" t="s">
         <v>31</v>
       </c>
@@ -5144,8 +9051,20 @@
       <c r="C338" s="9">
         <v>4134000</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D338" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v>TROVATO</v>
+      </c>
+      <c r="E338" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H338" s="26" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A339" s="7" t="s">
         <v>25</v>
       </c>
@@ -5155,8 +9074,20 @@
       <c r="C339" s="9">
         <v>6850000</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D339" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="E339" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H339" s="26" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A340" s="7" t="s">
         <v>9</v>
       </c>
@@ -5166,15 +9097,28 @@
       <c r="C340" s="9">
         <v>11712000</v>
       </c>
+      <c r="D340" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="E340" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H340" s="26" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A4:C340" xr:uid="{B64CFBE5-9F9D-4F9A-8F99-5524B5637A72}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Ufficio">
-      <formula>NOT(ISERROR(SEARCH("Ufficio",B1)))</formula>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Ufficio"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5187,8 +9131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView zoomScale="135" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5260,7 +9204,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="22">
-        <f>SUMIF(C:C,"Abbigliamento",D:D)</f>
+        <f>SUMIF(C:C,G3,D:D)</f>
         <v>611780</v>
       </c>
     </row>
@@ -5284,7 +9228,7 @@
         <v>64</v>
       </c>
       <c r="H4" s="22">
-        <f>SUMIF(C:C,"Alimentari",D:D)</f>
+        <f t="shared" ref="H4:H6" si="0">SUMIF(C:C,G4,D:D)</f>
         <v>30860</v>
       </c>
     </row>
@@ -5308,7 +9252,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="22">
-        <f>SUMIF(C:C,"Personale",D:D)</f>
+        <f t="shared" si="0"/>
         <v>54000</v>
       </c>
     </row>
@@ -5332,7 +9276,7 @@
         <v>58</v>
       </c>
       <c r="H6" s="22">
-        <f>SUMIF(C:C,"Hardware",D:D)</f>
+        <f t="shared" si="0"/>
         <v>6765600</v>
       </c>
     </row>
@@ -5353,7 +9297,7 @@
         <v>22</v>
       </c>
       <c r="G7" s="18"/>
-      <c r="H7" s="25"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -5375,7 +9319,7 @@
         <v>75</v>
       </c>
       <c r="H8" s="22">
-        <f>SUMIF(B:B,"H&amp;B",D:D)</f>
+        <f>SUMIF(B:B,G8,D:D)</f>
         <v>73450</v>
       </c>
     </row>
@@ -5399,7 +9343,7 @@
         <v>13</v>
       </c>
       <c r="H9" s="22">
-        <f>SUMIF(B:B,"Allstate",D:D)</f>
+        <f t="shared" ref="H9:H14" si="1">SUMIF(B:B,G9,D:D)</f>
         <v>50800</v>
       </c>
     </row>
@@ -5423,7 +9367,7 @@
         <v>34</v>
       </c>
       <c r="H10" s="22">
-        <f>SUMIF(B:B,"Canon USA",D:D)</f>
+        <f t="shared" si="1"/>
         <v>98450</v>
       </c>
     </row>
@@ -5447,7 +9391,7 @@
         <v>15</v>
       </c>
       <c r="H11" s="22">
-        <f>SUMIF(B:B,"America Online",D:D)</f>
+        <f t="shared" si="1"/>
         <v>7950</v>
       </c>
     </row>
@@ -5471,7 +9415,7 @@
         <v>31</v>
       </c>
       <c r="H12" s="22">
-        <f>SUMIF(B:B,"Biobottoms",D:D)</f>
+        <f t="shared" si="1"/>
         <v>283000</v>
       </c>
     </row>
@@ -5495,7 +9439,7 @@
         <v>59</v>
       </c>
       <c r="H13" s="22">
-        <f>SUMIF(B:B,"Epcot Center",D:D)</f>
+        <f t="shared" si="1"/>
         <v>107700</v>
       </c>
     </row>
@@ -5519,7 +9463,7 @@
         <v>29</v>
       </c>
       <c r="H14" s="22">
-        <f>SUMIF(B:B,"Biergarten",D:D)</f>
+        <f t="shared" si="1"/>
         <v>27270</v>
       </c>
     </row>
@@ -6664,8 +10608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBD8C3F-135D-4280-BD95-8C23E6C981DD}">
   <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6692,19 +10636,19 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>130</v>
       </c>
       <c r="B2" s="24">
         <v>125</v>
       </c>
       <c r="D2" s="23">
-        <f>COUNTIF(B:B,A2)</f>
-        <v>0</v>
+        <f>SUMIF(A:A,"OSSENIGO",B:B)</f>
+        <v>130</v>
       </c>
       <c r="E2" s="23">
-        <f>COUNTIF(B:B,A5)</f>
-        <v>0</v>
+        <f>SUMIF(A:A,"AVIO",B:B)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -6733,7 +10677,10 @@
       <c r="B5" s="24">
         <v>5</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="32">
+        <f>COUNTIF(B:B,"&gt;100")</f>
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="24" t="s">
@@ -6753,6 +10700,10 @@
       <c r="B7" s="24">
         <v>75</v>
       </c>
+      <c r="D7">
+        <f>COUNTIF(A2:A110,"C*")</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="24" t="s">
@@ -6772,6 +10723,10 @@
       <c r="B9" s="24">
         <v>5</v>
       </c>
+      <c r="D9">
+        <f>COUNTIFS(B:B,"&gt;=10",B:B,"&lt;=100")</f>
+        <v>53</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="24" t="s">
@@ -6819,7 +10774,7 @@
       <c r="B14" s="24">
         <v>50</v>
       </c>
-      <c r="D14" s="32"/>
+      <c r="D14" s="28"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="24" t="s">
